--- a/Ohjelman testaus - prototyyppi.xlsx
+++ b/Ohjelman testaus - prototyyppi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ohjelmiston prototyyppi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projektit\EndlessRunner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E2037C-4561-4F3E-8CFE-F903606BCD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82293690-0925-41D4-8C9A-10F0FC8BB40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45194956-D76F-4EC6-A2BD-6D4A7DADEB8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Ohjelman Testaus</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Hyppääminen</t>
   </si>
   <si>
-    <t>TuplaHyppy</t>
-  </si>
-  <si>
     <t>Pisteenlasku</t>
   </si>
   <si>
@@ -104,12 +101,6 @@
     <t>Alun perin pelaaja kiihtyi hypätessä kohtuullisen paljon ja sen nopeus perustuikin maapinnan antamaan kitkaan. Se saatiin kuitenkin paranneltua täysin pelattavaan muotoon ja toimii nyt normaalisti.</t>
   </si>
   <si>
-    <t>TuplaHyppy tuli ominaisuutena peliin ja on siitä lähtien toiminut ihan hyvin. TuplaHypyn korkeus saattaa tosin olla hitusen liian korkea ja sen voima perustuu pelaajan momenttiin painovoimaan nähden. Eli laskeuduttaessa hyppy on vähän heikompi kuin noustessa.</t>
-  </si>
-  <si>
-    <t>Pisteenlasku on aina tominut normaalisti. Yksi huomioitava asia on sen tarkkuus. Pisteenlasku menee sektoreittain, joten se alkaa käytännössä jo syntymäkohdasta, eikä alkavista esteistä. Ennätykset tule toisessa buildissa eikä niissä ole ollut ongelmaa.</t>
-  </si>
-  <si>
     <t>Elämät olivat täysin toimiva ominaisuus pitkän aikaa, kunnes päätin ottaa ne kokonaan pois käytöstä pelin hankaluutta ajatellen. Myös esteiden läpi meneminen oli hiukan häiritsevää, joka myös vaikutti päätökseen.</t>
   </si>
   <si>
@@ -129,6 +120,9 @@
   </si>
   <si>
     <t>Kamera seurasi alun perin pelaajaa myötäilemällä sen hyppyjä, mutta lukitsemalla se maan tasalle, sen toiminta ja pelin selkeys parani huomattavasti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pisteenlasku on aina tominut normaalisti. Yksi huomioitava asia on sen tarkkuus. Pisteenlasku menee sektoreittain, joten se alkaa käytännössä jo syntymäkohdasta, eikä alkavista esteistä. </t>
   </si>
 </sst>
 </file>
@@ -170,19 +164,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,54 +492,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB578F7-0983-49CA-957B-22AFCE6AEA4F}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
@@ -562,80 +556,80 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
         <v>4</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -656,34 +650,34 @@
     </row>
     <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -704,130 +698,130 @@
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -850,207 +844,158 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="J8:Z8"/>
     <mergeCell ref="J9:Z9"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="J8:Z8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
